--- a/cyber.xlsx
+++ b/cyber.xlsx
@@ -499,50 +499,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cybersecurity Foundations: Governance, Risk, and Compliance (GRC)
-## Introduction
-	Get started in cyber with GRC	35
-## 1. What Is GRC?
-	Origin of the GRC acronym	118
-	What is governance?	184
-	What is risk?	218
-	What is compliance?	162
-	How do GRC and cybersecurity interact?	212
-## 2. Building a GRC Program
-	Importance of GRC for companies	191
-	Challenges of building GRC programs	185
-	How can GRC tools help?	221
-	GRC capability model	199
-	GRC tips and strategies	242
-## 3. Frameworks to Know
-	NIST 800-39	171
-	SOC 2	186
-	HIPAA	311
-	PCI-DSS	250
-	NIST CSF	230
-	FedRAMP	253
-	CSA STAR	308
-	SOX	151
-	GDPR	228
-	ISO 27001	230
-	ISO 27701	277
-## 4. Treat Your GRC Program Like a Product
-	What does it mean to treat your GRC program like a product?	217
-	Building a GRC program using product management principles	177
-	Key metrics for measuring the success of your GRC program	222
-	Agile GRC: Continuous improvement in risk and compliance	239
-## 5. AI in GRC
-	Introduction to AI in governance, risk, and compliance	235
-	NIST AI risk management framework	221
-	ISO 42001: The new AI governance certification	250
-	Ethical considerations and AI risks in GRC	257
-## 6. GRC Career Tips
-	Key certifications to earn	190
-	Important soft skills for GRC professionals	154
-	Importance of technical skills for GRC professionals	229
-## Conclusion
-	Next steps	33
-</t>
+          <t xml:space="preserve"># Cybersecurity Foundations: Governance, Risk, and Compliance (GRC) ## Introduction 	Get started in cyber with GRC	35 ## 1. What Is GRC? 	Origin of the GRC acronym	118 	What is governance?	184 	What is risk?	218 	What is compliance?	162 	How do GRC and cybersecurity interact?	212 ## 2. Building a GRC Program 	Importance of GRC for companies	191 	Challenges of building GRC programs	185 	How can GRC tools help?	221 	GRC capability model	199 	GRC tips and strategies	242 ## 3. Frameworks to Know 	NIST 800-39	171 	SOC 2	186 	HIPAA	311 	PCI-DSS	250 	NIST CSF	230 	FedRAMP	253 	CSA STAR	308 	SOX	151 	GDPR	228 	ISO 27001	230 	ISO 27701	277 ## 4. Treat Your GRC Program Like a Product 	What does it mean to treat your GRC program like a product?	217 	Building a GRC program using product management principles	177 	Key metrics for measuring the success of your GRC program	222 	Agile GRC: Continuous improvement in risk and compliance	239 ## 5. AI in GRC 	Introduction to AI in governance, risk, and compliance	235 	NIST AI risk management framework	221 	ISO 42001: The new AI governance certification	250 	Ethical considerations and AI risks in GRC	257 ## 6. GRC Career Tips 	Key certifications to earn	190 	Important soft skills for GRC professionals	154 	Importance of technical skills for GRC professionals	229 ## Conclusion 	Next steps	33 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1406,39 +1363,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"># IT and Cybersecurity Risk Management Essential Training
-## Introduction
-	Managing risk in IT	50
-## 1. What Is IT Risk Management?
-	What is IT risk?	278
-	What is IT risk appetite?	152
-	What is IT risk tolerance?	184
-	Types of IT risks	220
-	AI in IT and cybersecurity	189
-	Making an IT risk decision	220
-## 2. IT Risk Management in Context
-	IT risk management in small companies	258
-	IT risk management in medium companies	383
-	IT risk management in large companies	379
-	Quantitative vs. qualitative risk assessments	213
-	The role of organizational culture	157
-	The minimum viable approach	213
-## 3. IT Risk Management in Practice
-	Performing the IT risk assessment	269
-	Choosing an IT risk management framework	261
-	Choosing an IT risk management tool	168
-	Determining an acceptable level of IT risk	196
-	Using an IT risk register	270
-	IT risk management techniques	399
-## 4. IT Risk Management on the Job
-	Choosing the right IT risk management technique	344
-	Choosing controls	224
-	Implementing controls	228
-	Operating controls	311
-	Validating controls	194
-## Conclusion
-	Next steps with managing risk in IT	79
-</t>
+          <t xml:space="preserve"># IT and Cybersecurity Risk Management Essential Training ## Introduction 	Managing risk in IT	50 ## 1. What Is IT Risk Management? 	What is IT risk?	278 	What is IT risk appetite?	152 	What is IT risk tolerance?	184 	Types of IT risks	220 	AI in IT and cybersecurity	189 	Making an IT risk decision	220 ## 2. IT Risk Management in Context 	IT risk management in small companies	258 	IT risk management in medium companies	383 	IT risk management in large companies	379 	Quantitative vs. qualitative risk assessments	213 	The role of organizational culture	157 	The minimum viable approach	213 ## 3. IT Risk Management in Practice 	Performing the IT risk assessment	269 	Choosing an IT risk management framework	261 	Choosing an IT risk management tool	168 	Determining an acceptable level of IT risk	196 	Using an IT risk register	270 	IT risk management techniques	399 ## 4. IT Risk Management on the Job 	Choosing the right IT risk management technique	344 	Choosing controls	224 	Implementing controls	228 	Operating controls	311 	Validating controls	194 ## Conclusion 	Next steps with managing risk in IT	79 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2277,51 +2202,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cybersecurity Compliance and Regulatory Essentials for GRC Analysts
-## Introduction
-	Avoid fines, win clients: Build a smarter compliance program	45
-	🎭 FAKE VIDEO: Not legal advice disclaimer	0
-	Not legal advice disclaimer	60
-	Key terms and definitions	152
-## 1. Cybersecurity Compliance Fundamentals
-	The "C" in GRC	97
-	Defining compliance initiatives	210
-	Importance of compliance	160
-	Lines of defense	189
-	Roles and responsibilities	229
-## 2. Designing a Compliance Program
-	Defining the compliance process	65
-	Requirements and gaps	173
-	Realignment and awareness	169
-	Assurance and compliance	161
-	Monitoring and reporting	143
-	Compliance engineering	184
-## 3. Understanding Regulatory Impact
-	Regulation overview	266
-	International regulations	156
-	State and local regulations	176
-	Emerging regulations	130
-	Requests for information	177
-	Voluntary commitments	172
-## 4. Reports, Certifications, and Industry Standards
-	SOC reports	186
-	ISO 27001	204
-	PCI DSS	219
-## 5. Frameworks
-	COSO	130
-	COBIT	170
-	NIST Cybersecurity Framework	158
-	Secure Controls Framework	155
-	Vendor management	158
-## 6. Future Compliance Topics
-	Artificial intelligence	209
-	Internet of Things (IoT)	165
-	Blockchain	144
-## Conclusion
-	Putting your knowledge into action	38
-	🎭 FAKE VIDEO: Additional resources	0
-	Additional resources	90
-</t>
+          <t xml:space="preserve"># Cybersecurity Compliance and Regulatory Essentials for GRC Analysts ## Introduction 	Avoid fines, win clients: Build a smarter compliance program	45 	🎭 FAKE VIDEO: Not legal advice disclaimer	0 	Not legal advice disclaimer	60 	Key terms and definitions	152 ## 1. Cybersecurity Compliance Fundamentals 	The "C" in GRC	97 	Defining compliance initiatives	210 	Importance of compliance	160 	Lines of defense	189 	Roles and responsibilities	229 ## 2. Designing a Compliance Program 	Defining the compliance process	65 	Requirements and gaps	173 	Realignment and awareness	169 	Assurance and compliance	161 	Monitoring and reporting	143 	Compliance engineering	184 ## 3. Understanding Regulatory Impact 	Regulation overview	266 	International regulations	156 	State and local regulations	176 	Emerging regulations	130 	Requests for information	177 	Voluntary commitments	172 ## 4. Reports, Certifications, and Industry Standards 	SOC reports	186 	ISO 27001	204 	PCI DSS	219 ## 5. Frameworks 	COSO	130 	COBIT	170 	NIST Cybersecurity Framework	158 	Secure Controls Framework	155 	Vendor management	158 ## 6. Future Compliance Topics 	Artificial intelligence	209 	Internet of Things (IoT)	165 	Blockchain	144 ## Conclusion 	Putting your knowledge into action	38 	🎭 FAKE VIDEO: Additional resources	0 	Additional resources	90 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3155,58 +3036,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Privacy Fundamentals for GRC Analysts: From Assessment Methods to Remediation Planning
-## Introduction
-	Become a voice for privacy in your organization	0
-## 1. Information Privacy and GRC Context
-	Data privacy vs. data security	0
-	The importance of privacy	0
-	Privacy's role in GRC	0
-	GRC analyst knowledge, skills, and tasks	0
-	Key roles and teams in privacy management	0
-## 2. The Global Regulatory Landscape
-	GDPR	0
-	CCPA and CPRA	0
-	The state of privacy regulation in the United States	0
-	Breach notification requirements	0
-## 3. Foundational Privacy Principles
-	Lawfulness, fairness, and transparency	0
-	Purpose limitation	0
-	Data minimization	0
-	Accuracy	0
-	Storage limitation	0
-	Integrity and confidentiality	0
-	Accountability	0
-## 4. Privacy by Design
-	Proactive, not reactive; preventative, not remedial	0
-	Privacy as the default setting	0
-	Privacy embedded into design	0
-	Full functionality (positive-sum)	0
-	End-to-end security	0
-	Visibility and transparency	0
-	Respect for user privacy	0
-## 5. Privacy Governance Program
-	Understanding the NIST Privacy Framework	0
-	NIST Privacy Framework: Identify	0
-	NIST Privacy Framework: Privacy risk assessment	0
-	NIST Privacy Framework: Govern	0
-	NIST Privacy Framework: Control	0
-	NIST Privacy Framework: Protect	0
-	NIST Privacy Framework: Communicate	0
-## 6. Privacy Failure Case Studies
-	Facebook's SMS failure	0
-	Cerebral and Monument: Sharing sensitive data for advertising	0
-	Uber: “God view” employee tracking	0
-	LinkedIn auto opt-in for AI	0
-## 7. Operational Privacy: DSRs and Incident Response
-	Data subject requests and incident response	0
-## 8. The Future of Privacy
-	Privacy and AI	0
-## Conclusion
-	Key takeaways	0
-	FAKE VIDEO: Additional resources	0
-	Additional resources	180
-</t>
+          <t xml:space="preserve"># Privacy Fundamentals for GRC Analysts: From Assessment Methods to Remediation Planning ## Introduction 	Become a voice for privacy in your organization	0 ## 1. Information Privacy and GRC Context 	Data privacy vs. data security	0 	The importance of privacy	0 	Privacy's role in GRC	0 	GRC analyst knowledge, skills, and tasks	0 	Key roles and teams in privacy management	0 ## 2. The Global Regulatory Landscape 	GDPR	0 	CCPA and CPRA	0 	The state of privacy regulation in the United States	0 	Breach notification requirements	0 ## 3. Foundational Privacy Principles 	Lawfulness, fairness, and transparency	0 	Purpose limitation	0 	Data minimization	0 	Accuracy	0 	Storage limitation	0 	Integrity and confidentiality	0 	Accountability	0 ## 4. Privacy by Design 	Proactive, not reactive; preventative, not remedial	0 	Privacy as the default setting	0 	Privacy embedded into design	0 	Full functionality (positive-sum)	0 	End-to-end security	0 	Visibility and transparency	0 	Respect for user privacy	0 ## 5. Privacy Governance Program 	Understanding the NIST Privacy Framework	0 	NIST Privacy Framework: Identify	0 	NIST Privacy Framework: Privacy risk assessment	0 	NIST Privacy Framework: Govern	0 	NIST Privacy Framework: Control	0 	NIST Privacy Framework: Protect	0 	NIST Privacy Framework: Communicate	0 ## 6. Privacy Failure Case Studies 	Facebook's SMS failure	0 	Cerebral and Monument: Sharing sensitive data for advertising	0 	Uber: “God view” employee tracking	0 	LinkedIn auto opt-in for AI	0 ## 7. Operational Privacy: DSRs and Incident Response 	Data subject requests and incident response	0 ## 8. The Future of Privacy 	Privacy and AI	0 ## Conclusion 	Key takeaways	0 	FAKE VIDEO: Additional resources	0 	Additional resources	180 </t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -3240,42 +3070,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cybersecurity Audit and Assessment Fundamentals for GRC Analysts: From Vendor Risk to Incident Coordination
-## Introduction
-	Explore cybersecurity auditing fundamentals	44
-## 1. Cybersecurity Audit 101
-	What is a cybersecurity audit?	143
-	The audit lifecycle	149
-	Key roles and responsibilities	146
-	Importance of cybersecurity auditing in GRC	168
-## 2. Cybersecurity Frameworks and Standards
-	Overview of common frameworks	168
-	Framework selection criteria	179
-	Mapping frameworks for efficiency	215
-	Practical application example: NIST Cybersecurity Framework	177
-## 3. Conducting Cybersecurity Risk Assessments
-	Risk assessment fundamentals	231
-	Identifying and documenting risks	231
-	Rating and prioritizing risks	230
-	Hands-on risk assessment walkthrough	216
-## 4. Enhancing Audits with AI and GRC Engineering
-	Introduction to AI in cybersecurity auditing	170
-	AI tools and techniques	188
-	Automating audit processes with GRC engineering	212
-	Case study: AI-enhanced audit scenario	232
-## 5. Reporting and Communicating Audit Results
-	Elements of an effective audit report	193
-	Communicating findings to diverse stakeholders	190
-	Writing clear audit recommendations	211
-	From report to remediation	253
-## 6. Audit Follow-Up and Continuous Improvement
-	Tracking and monitoring audit remediation	235
-	Evaluating audit effectiveness	231
-	Establishing a continuous audit process	241
-	Building an audit-ready culture	211
-## Conclusion
-	Next steps	26
-</t>
+          <t xml:space="preserve"># Cybersecurity Audit and Assessment Fundamentals for GRC Analysts: From Vendor Risk to Incident Coordination ## Introduction 	Explore cybersecurity auditing fundamentals	44 ## 1. Cybersecurity Audit 101 	What is a cybersecurity audit?	143 	The audit lifecycle	149 	Key roles and responsibilities	146 	Importance of cybersecurity auditing in GRC	168 ## 2. Cybersecurity Frameworks and Standards 	Overview of common frameworks	168 	Framework selection criteria	179 	Mapping frameworks for efficiency	215 	Practical application example: NIST Cybersecurity Framework	177 ## 3. Conducting Cybersecurity Risk Assessments 	Risk assessment fundamentals	231 	Identifying and documenting risks	231 	Rating and prioritizing risks	230 	Hands-on risk assessment walkthrough	216 ## 4. Enhancing Audits with AI and GRC Engineering 	Introduction to AI in cybersecurity auditing	170 	AI tools and techniques	188 	Automating audit processes with GRC engineering	212 	Case study: AI-enhanced audit scenario	232 ## 5. Reporting and Communicating Audit Results 	Elements of an effective audit report	193 	Communicating findings to diverse stakeholders	190 	Writing clear audit recommendations	211 	From report to remediation	253 ## 6. Audit Follow-Up and Continuous Improvement 	Tracking and monitoring audit remediation	235 	Evaluating audit effectiveness	231 	Establishing a continuous audit process	241 	Building an audit-ready culture	211 ## Conclusion 	Next steps	26 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -3347,57 +3142,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Strategic Leadership for Cybersecurity Managers: From Team Management to Security Culture Development
-## Introduction
-	Strategic leadership for cybersecurity leaders	0
-## 1. The First 90 Days in Cyber Leadership
-	Welcome to the war room: Owning your role early	0
-	Mapping the terrain	0
-	Listening before leading	0
-	Quick wins, strategic patience	0
-	Establish your credibility quickly	0
-## 2. Building a Winning Cybersecurity Strategy
-	Strategy vs. activity	0
-	Aligning to business outcomes	0
-	Risk, resilience, and reliability	0
-	Strategy on a page	0
-	Making the strategy last	0
-## 3. Building and Leading a High-Performing Team
-	Designing your org for now and the future	0
-	Hiring for the long game	0
-	Coaching like an executive	0
-	Creating a culture of trust	0
-	Handling underperformance	0
-	Your team brand	0
-## 4. Budgeting and Business Cases That Win
-	Understanding the budget game	0
-	Speaking the language of finance	0
-	Building the business case	0
-	Defending the budget in tough times	0
-	Multiyear thinking	0
-	Pitching with confidence	0
-## 5. Marketing Your Cybersecurity Org Internally
-	Why marketing matters in cyber	0
-	Crafting the cyber narrative	0
-	Making your team visible	0
-	Embedding security in culture and communication	0
-	Staying consistent and clear	0
-## 6. Communicating with the Board and Managing Crises
-	What the board wants to know	0
-	Creating your board deck	0
-	Speaking calm in chaos	0
-	Incident response for execs	0
-	Reputation risk is business risk	0
-	Post-crisis leadership	0
-## 7. Developing Your Successors and Building Legacy
-	Lead with executive presence	0
-	Developing future leaders	0
-	Succession planning in action	0
-	Leaving a legacy	0
-	When it's time to move to the next opportunity	0
-## Conclusion
-	Turning knowledge into action	0
-</t>
+          <t xml:space="preserve"># Strategic Leadership for Cybersecurity Managers: From Team Management to Security Culture Development ## Introduction 	Strategic leadership for cybersecurity leaders	0 ## 1. The First 90 Days in Cyber Leadership 	Welcome to the war room: Owning your role early	0 	Mapping the terrain	0 	Listening before leading	0 	Quick wins, strategic patience	0 	Establish your credibility quickly	0 ## 2. Building a Winning Cybersecurity Strategy 	Strategy vs. activity	0 	Aligning to business outcomes	0 	Risk, resilience, and reliability	0 	Strategy on a page	0 	Making the strategy last	0 ## 3. Building and Leading a High-Performing Team 	Designing your org for now and the future	0 	Hiring for the long game	0 	Coaching like an executive	0 	Creating a culture of trust	0 	Handling underperformance	0 	Your team brand	0 ## 4. Budgeting and Business Cases That Win 	Understanding the budget game	0 	Speaking the language of finance	0 	Building the business case	0 	Defending the budget in tough times	0 	Multiyear thinking	0 	Pitching with confidence	0 ## 5. Marketing Your Cybersecurity Org Internally 	Why marketing matters in cyber	0 	Crafting the cyber narrative	0 	Making your team visible	0 	Embedding security in culture and communication	0 	Staying consistent and clear	0 ## 6. Communicating with the Board and Managing Crises 	What the board wants to know	0 	Creating your board deck	0 	Speaking calm in chaos	0 	Incident response for execs	0 	Reputation risk is business risk	0 	Post-crisis leadership	0 ## 7. Developing Your Successors and Building Legacy 	Lead with executive presence	0 	Developing future leaders	0 	Succession planning in action	0 	Leaving a legacy	0 	When it's time to move to the next opportunity	0 ## Conclusion 	Turning knowledge into action	0 </t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -3432,70 +3177,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Enterprise Security Risk Management for Cybersecurity Managers: From Assessment to Governance with ISO/IEC 27005
-## Introduction
-	Why enterprise risk management (ERM) matters for security leaders	48
-	FAKE VIDEO: Mastering ERM for cybersecurity leaders	0
-	Mastering ERM for cybersecurity leaders	180
-## 1. Understanding Enterprise Risk Management (ERM)
-	ERM vs. cybersecurity risk management	110
-	Breaking down ERM risk types	116
-	Connecting cyber risk to business risk	131
-	Challenge: Match the cyber risk to the ERM risk type	77
-	Solution: Match the cyber risk to the ERM risk type	103
-## 2. ISO/IEC 27005 Overview and Terminology
-	Manage cybersecurity risk with ISO/IEC 27005	160
-	ISO/IEC 27005 lifecycle overview	130
-	Risk concepts and terms	160
-	Challenge: Match the risk term to its meaning	49
-	Solution: Match the risk term to its meaning	78
-## 3. Establish the Context
-	Understanding the organization and setting risk boundaries	256
-	Identifying stakeholders and their risk requirements	164
-	Defining risk criteria and acceptance levels	273
-	Challenge: Determine risk appetite	100
-	Solution: Determine risk appetite	94
-## 4. Identify the Risk
-	Event-based risk identification	141
-	Asset-based risk identification	144
-	Control-based risk identification	180
-	Challenge: Find the risk from a missing control	60
-	Solution: Find the risk from a missing control	52
-	Assigning risk ownership	167
-## 5. Analyze and Evaluate the Risk
-	Qualitative vs. quantitative risk assessment	245
-	Determining likelihood and impact	178
-	Prioritizing risks and building a risk matrix	230
-	Challenge: Estimate likelihood and impact	68
-	Solution: Estimate likelihood and impact	73
-## 6. Treat the Risk
-	Reduce, accept, avoid, or transfer the risk	143
-	Choosing controls to reduce risk	149
-	Building a risk treatment plan	171
-	Accepting residual risks	129
-	Challenge: Identify controls to reduce this risk	61
-	Solution: Identify controls to reduce this risk	60
-## 7. Communicate and Report the Risk
-	Tracking risks using a risk register	185
-	Reporting risk to the board and executives	193
-	Using visuals: Heat maps, graphs, and scorecards	235
-	Challenge: Rephrase this risk for executives	73
-	Solution: Rephrase this risk for executives	61
-## 8. Third-Party Risk Management
-	Why third parties are some of your biggest risks	198
-	Reducing cyber risk in third-party relationships	172
-	Understanding software supply chain risks	242
-	Challenge: How would you handle this risky vendor?	44
-	Solution: How would you handle this risky vendor?	70
-## 9. Monitoring, Review, and Continual Improvement
-	Keeping risk assessments up-to-date	163
-	Conducting management reviews	155
-	Corrective action and continual improvement	155
-	Challenge: What would you cover in a risk management review?	60
-	Solution: What would you cover in a risk management review?	69
-## Conclusion
-	Turning risk awareness into action	26
-</t>
+          <t xml:space="preserve"># Enterprise Security Risk Management for Cybersecurity Managers: From Assessment to Governance with ISO/IEC 27005 ## Introduction 	Why enterprise risk management (ERM) matters for security leaders	48 	FAKE VIDEO: Mastering ERM for cybersecurity leaders	0 	Mastering ERM for cybersecurity leaders	180 ## 1. Understanding Enterprise Risk Management (ERM) 	ERM vs. cybersecurity risk management	110 	Breaking down ERM risk types	116 	Connecting cyber risk to business risk	131 	Challenge: Match the cyber risk to the ERM risk type	77 	Solution: Match the cyber risk to the ERM risk type	103 ## 2. ISO/IEC 27005 Overview and Terminology 	Manage cybersecurity risk with ISO/IEC 27005	160 	ISO/IEC 27005 lifecycle overview	130 	Risk concepts and terms	160 	Challenge: Match the risk term to its meaning	49 	Solution: Match the risk term to its meaning	78 ## 3. Establish the Context 	Understanding the organization and setting risk boundaries	256 	Identifying stakeholders and their risk requirements	164 	Defining risk criteria and acceptance levels	273 	Challenge: Determine risk appetite	100 	Solution: Determine risk appetite	94 ## 4. Identify the Risk 	Event-based risk identification	141 	Asset-based risk identification	144 	Control-based risk identification	180 	Challenge: Find the risk from a missing control	60 	Solution: Find the risk from a missing control	52 	Assigning risk ownership	167 ## 5. Analyze and Evaluate the Risk 	Qualitative vs. quantitative risk assessment	245 	Determining likelihood and impact	178 	Prioritizing risks and building a risk matrix	230 	Challenge: Estimate likelihood and impact	68 	Solution: Estimate likelihood and impact	73 ## 6. Treat the Risk 	Reduce, accept, avoid, or transfer the risk	143 	Choosing controls to reduce risk	149 	Building a risk treatment plan	171 	Accepting residual risks	129 	Challenge: Identify controls to reduce this risk	61 	Solution: Identify controls to reduce this risk	60 ## 7. Communicate and Report the Risk 	Tracking risks using a risk register	185 	Reporting risk to the board and executives	193 	Using visuals: Heat maps, graphs, and scorecards	235 	Challenge: Rephrase this risk for executives	73 	Solution: Rephrase this risk for executives	61 ## 8. Third-Party Risk Management 	Why third parties are some of your biggest risks	198 	Reducing cyber risk in third-party relationships	172 	Understanding software supply chain risks	242 	Challenge: How would you handle this risky vendor?	44 	Solution: How would you handle this risky vendor?	70 ## 9. Monitoring, Review, and Continual Improvement 	Keeping risk assessments up-to-date	163 	Conducting management reviews	155 	Corrective action and continual improvement	155 	Challenge: What would you cover in a risk management review?	60 	Solution: What would you cover in a risk management review?	69 ## Conclusion 	Turning risk awareness into action	26 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -3529,51 +3211,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Program Management for Cybersecurity Managers: From Planning to Cross-Functional Coordination
-## Introduction
-	Protect against cyber attacks	55
-## 1. Overview
-	What is information security?	187
-	Cybersecurity overview	152
-	Cyber resilience overview	146
-	Risk management overview	95
-	Challenge: Prepare and recover	45
-	Solution: Prepare and recover	170
-## 2. Cybersecurity Program Goals
-	Achieve your customers’ expectations	157
-	Cyber attack and failure resilience	149
-	Compliance with laws and regulations	155
-	Executive and BOD support	150
-	Security budget development and defense	185
-	Challenge: Customer security requirements	59
-	Solution: Customer security requirements	55
-## 3. Cybersecurity Program Components
-	Essential functions of a program	158
-	Determine your role	176
-	Build a team	198
-	Resource and team management	133
-	The need for management	184
-	The need for leadership	186
-	Challenge: Core competencies	89
-	Solution: Core competencies	126
-## 4. Structuring a Cybersecurity Program
-	Sources of controls	190
-	Organize around cyber resilience	170
-	Information security program design	193
-	Security project planning	169
-## 5. Demonstrate Compliance and Progress
-	Communicate with executives	173
-	Communicate with stakeholders	222
-	Communicate with auditors	243
-	Construct an annual program of work	194
-	Security metrics and reporting	150
-	Challenge: Optimize cybersecurity program	86
-	Solution: Optimize cybersecurity program	156
-## Conclusion
-	Next steps for cybersecurity programs	121
-	FAKEVIDEO: Additional resources	0
-	Additional resources	600
-</t>
+          <t xml:space="preserve"># Program Management for Cybersecurity Managers: From Planning to Cross-Functional Coordination ## Introduction 	Protect against cyber attacks	55 ## 1. Overview 	What is information security?	187 	Cybersecurity overview	152 	Cyber resilience overview	146 	Risk management overview	95 	Challenge: Prepare and recover	45 	Solution: Prepare and recover	170 ## 2. Cybersecurity Program Goals 	Achieve your customers’ expectations	157 	Cyber attack and failure resilience	149 	Compliance with laws and regulations	155 	Executive and BOD support	150 	Security budget development and defense	185 	Challenge: Customer security requirements	59 	Solution: Customer security requirements	55 ## 3. Cybersecurity Program Components 	Essential functions of a program	158 	Determine your role	176 	Build a team	198 	Resource and team management	133 	The need for management	184 	The need for leadership	186 	Challenge: Core competencies	89 	Solution: Core competencies	126 ## 4. Structuring a Cybersecurity Program 	Sources of controls	190 	Organize around cyber resilience	170 	Information security program design	193 	Security project planning	169 ## 5. Demonstrate Compliance and Progress 	Communicate with executives	173 	Communicate with stakeholders	222 	Communicate with auditors	243 	Construct an annual program of work	194 	Security metrics and reporting	150 	Challenge: Optimize cybersecurity program	86 	Solution: Optimize cybersecurity program	156 ## Conclusion 	Next steps for cybersecurity programs	121 	FAKEVIDEO: Additional resources	0 	Additional resources	600 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4436,45 +4074,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Incident Response Leadership for Cybersecurity Managers: From Incident Planning to Business Continuity
-## Introduction
-	Planning your incident response	46
-## Introduction to IR Planning
-	Key components of an IR plan	121
-	IR standards and frameworks	170
-	Business case for planning	127
-## Incident response planning
-	Identifying key stakeholders	113
-	Identifying business critical systems	92
-	Creating a plan/plan templates	75
-	Access to your plan	68
-	Communicating your plan	103
-	Communication protocols	133
-	Engaging providers	159
-## Threat Intelligence for Incident Response
-	Know your adversary	119
-	Threat-based scenario planning	131
-	Risk-based scenario planning	135
-	Intelligence during an incident	125
-## Tabletop Exercises
-	Planning a tabletop exercise	161
-	Formats for tabletop exercises and types	131
-	During a tabletop exercise	117
-	Post-tabletop recap	112
-## Crisis Communications
-	Crisis management vs. incident response	89
-	Who needs to be involved	139
-	Putting customer at the heart of communication	274
-	How often and staying up to date with plan	108
-	Staying calm under pressure	105
-## Business Continuity
-	BCP and IR plan alignment	133
-	Business impact analysis for IR	88
-	Restore your systems	148
-	Tracking lost revenue	157
-## Conclusion
-	Next steps	34
-</t>
+          <t xml:space="preserve"># Incident Response Leadership for Cybersecurity Managers: From Incident Planning to Business Continuity ## Introduction 	Planning your incident response	46 ## Introduction to IR Planning 	Key components of an IR plan	121 	IR standards and frameworks	170 	Business case for planning	127 ## Incident response planning 	Identifying key stakeholders	113 	Identifying business critical systems	92 	Creating a plan/plan templates	75 	Access to your plan	68 	Communicating your plan	103 	Communication protocols	133 	Engaging providers	159 ## Threat Intelligence for Incident Response 	Know your adversary	119 	Threat-based scenario planning	131 	Risk-based scenario planning	135 	Intelligence during an incident	125 ## Tabletop Exercises 	Planning a tabletop exercise	161 	Formats for tabletop exercises and types	131 	During a tabletop exercise	117 	Post-tabletop recap	112 ## Crisis Communications 	Crisis management vs. incident response	89 	Who needs to be involved	139 	Putting customer at the heart of communication	274 	How often and staying up to date with plan	108 	Staying calm under pressure	105 ## Business Continuity 	BCP and IR plan alignment	133 	Business impact analysis for IR	88 	Restore your systems	148 	Tracking lost revenue	157 ## Conclusion 	Next steps	34 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -4508,8 +4108,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Security Governance and Compliance for Cybersecurity Managers: From Structure Design to Board Reporting
-</t>
+          <t xml:space="preserve"># Security Governance and Compliance for Cybersecurity Managers: From Structure Design to Board Reporting </t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -4581,38 +4180,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"># DevOps Foundations: DevSecOps
-## Introduction
-	Introduction to DevSecOps	47
-	What you should know	22
-## 1. DevOps Basics
-	What is DevOps?	245
-	Security is different in a DevOps world	171
-	Introduction to DevSecOps	194
-	Shifting security to the left	205
-## 2. DevSecOps Foundations
-	Cloud and DevOps	113
-	Continuous integration and delivery	137
-	APIs are essential	131
-	Containers and DevOps	145
-	Infrastructure as Code (IaC) in the pipeline	199
-## 3. Getting Started with DevSecOps
-	Application security in DevSecOps	248
-	Leverage your existing processes	298
-	The Ops in DevSecOps	129
-	AI in DevSecOps	164
-	Continuous feedback and improvement	138
-## 4. Maturing Your DevSecOps Practice
-	Metrics in DevSecOps	217
-	Open source DevSecOps tools	189
-	FAKE VIDEO: Helpful DevSecOps resources	0
-	Helpful DevSecOps resources	300
-	Real-life examples	231
-## Conclusion
-	Grow and expand	82
-	FAKE VIDEO: Glossary	0
-	Glossary	120
-</t>
+          <t xml:space="preserve"># DevOps Foundations: DevSecOps ## Introduction 	Introduction to DevSecOps	47 	What you should know	22 ## 1. DevOps Basics 	What is DevOps?	245 	Security is different in a DevOps world	171 	Introduction to DevSecOps	194 	Shifting security to the left	205 ## 2. DevSecOps Foundations 	Cloud and DevOps	113 	Continuous integration and delivery	137 	APIs are essential	131 	Containers and DevOps	145 	Infrastructure as Code (IaC) in the pipeline	199 ## 3. Getting Started with DevSecOps 	Application security in DevSecOps	248 	Leverage your existing processes	298 	The Ops in DevSecOps	129 	AI in DevSecOps	164 	Continuous feedback and improvement	138 ## 4. Maturing Your DevSecOps Practice 	Metrics in DevSecOps	217 	Open source DevSecOps tools	189 	FAKE VIDEO: Helpful DevSecOps resources	0 	Helpful DevSecOps resources	300 	Real-life examples	231 ## Conclusion 	Grow and expand	82 	FAKE VIDEO: Glossary	0 	Glossary	120 </t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -5468,28 +5036,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cybersecurity Foundations: Application Security
-## Introduction
-	Learn to secure applications	40
-	The most reported vulnerabilities today	49
-## 1. Access Control
-	Improper authentication	254
-	Improper authorization	238
-## 2. Tainted Input
-	Insecure direct object references (IDOR)	244
-	Cross-site scripting (XSS)	247
-	Cross-site request forgery (CSRF)	178
-## 3. Insecure Design
-	Information disclosure	277
-	Open redirect	167
-	Business logic errors	161
-## 4. Industry Trends
-	Web application firewall (WAF)	435
-	DevSecOps	272
-	Practice platforms	114
-## Conclusion
-	Next steps	91
-</t>
+          <t xml:space="preserve"># Cybersecurity Foundations: Application Security ## Introduction 	Learn to secure applications	40 	The most reported vulnerabilities today	49 ## 1. Access Control 	Improper authentication	254 	Improper authorization	238 ## 2. Tainted Input 	Insecure direct object references (IDOR)	244 	Cross-site scripting (XSS)	247 	Cross-site request forgery (CSRF)	178 ## 3. Insecure Design 	Information disclosure	277 	Open redirect	167 	Business logic errors	161 ## 4. Industry Trends 	Web application firewall (WAF)	435 	DevSecOps	272 	Practice platforms	114 ## Conclusion 	Next steps	91 </t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6319,47 +5866,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cloud Security for DevSecOps Engineers: From Security Models to API Protection
-## Introduction
-	From risk to resilience: Securing the cloud without slowing down	65
-	What you should know before continuing	59
-## 1. Understanding the Cloud and Foundational Security Risks
-	What is cloud computing?	306
-	Cloud deployment types	352
-	SaaS, PaaS, and IaaS explained	403
-	The shared responsibility model	411
-	Security implications for SaaS, PaaS, and IaaS	286
-## 2. Cloud Security Essentials for DevSecOps
-	Risks in public cloud	358
-	Understanding cloud security controls	437
-	Controlling access to cloud resources using IAM	457
-	Protecting data at rest and in transit	192
-	Protecting data with encryption and secrets management	373
-	Logging and monitoring fundamentals	307
-	Network security explained	314
-	Tagging, labels, and governance	451
-## 3. Securing APIs in Cloud-Native Environments
-	APIs in the cloud: What they are and why they matter	260
-	API risks and OWASP API Top 10 overview	296
-	Securing APIs with authentication and authorization	241
-	Input validation and response hardening	365
-	Logging and monitoring for API security	389
-	API rate limiting and abuse prevention	285
-	API security testing	354
-## 4. Building Secure Infrastructure as Code
-	Getting set up in GitHub Codespaces	286
-	What is infrastructure as code (IaC)?	327
-	Common security risks with IaC	286
-	Policy-as-code basics	261
-	FAKE VIDEO: Policy-as-code tools and frameworks reference guide	0
-	Policy-as-code tools and frameworks reference guide	300
-	IaC scanning basics	332
-	Scan misconfigured IaC files and report findings using Trivy	210
-	Purpose of automating IaC security scans	112
-	GitHub Actions IaC scanning with Trivy	412
-## Conclusion
-	Next steps	104
-</t>
+          <t xml:space="preserve"># Cloud Security for DevSecOps Engineers: From Security Models to API Protection ## Introduction 	From risk to resilience: Securing the cloud without slowing down	65 	What you should know before continuing	59 ## 1. Understanding the Cloud and Foundational Security Risks 	What is cloud computing?	306 	Cloud deployment types	352 	SaaS, PaaS, and IaaS explained	403 	The shared responsibility model	411 	Security implications for SaaS, PaaS, and IaaS	286 ## 2. Cloud Security Essentials for DevSecOps 	Risks in public cloud	358 	Understanding cloud security controls	437 	Controlling access to cloud resources using IAM	457 	Protecting data at rest and in transit	192 	Protecting data with encryption and secrets management	373 	Logging and monitoring fundamentals	307 	Network security explained	314 	Tagging, labels, and governance	451 ## 3. Securing APIs in Cloud-Native Environments 	APIs in the cloud: What they are and why they matter	260 	API risks and OWASP API Top 10 overview	296 	Securing APIs with authentication and authorization	241 	Input validation and response hardening	365 	Logging and monitoring for API security	389 	API rate limiting and abuse prevention	285 	API security testing	354 ## 4. Building Secure Infrastructure as Code 	Getting set up in GitHub Codespaces	286 	What is infrastructure as code (IaC)?	327 	Common security risks with IaC	286 	Policy-as-code basics	261 	FAKE VIDEO: Policy-as-code tools and frameworks reference guide	0 	Policy-as-code tools and frameworks reference guide	300 	IaC scanning basics	332 	Scan misconfigured IaC files and report findings using Trivy	210 	Purpose of automating IaC security scans	112 	GitHub Actions IaC scanning with Trivy	412 ## Conclusion 	Next steps	104 </t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -6393,8 +5900,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"># DevSecOps Metrics and Continuous Improvement
-</t>
+          <t xml:space="preserve"># DevSecOps Metrics and Continuous Improvement </t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -6466,47 +5972,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Security Architecture Foundations for Security Architects: From Frameworks to Business Integration
-## Introduction
-	The strategic value of security architecture	44
-	What you should know	74
-## 1. Core Concepts and Security Frameworks
-	Introduction to security architecture	210
-	Overview of key security architecture frameworks	252
-	Understanding NIST Cybersecurity Framework	272
-	Mapping architecture layers (business, data, application, technology)	230
-	Control Frameworks and Reference Models (ISO 27001, COBIT, MITRE ATT&amp;CK)	232
-	Framework fit	195
-## 2. Security Design Principles and Governance
-	Applying security by design principles	226
-	Designing for resilience and availability	179
-	Secure architecture governance and decision-making	234
-	Business continuity and security architecture alignment	274
-	Security patterns and architecture reuse	279
-## 3. Business Integration and Alignment
-	Understanding business strategy and its impact on security	230
-	Risk management and business Impact analysis	234
-	FAKE VIDEO - Role Play: Conduct Business Impact Analysis to Inform Security Architecture Design	0
-	Stakeholder engagement and communication	228
-	Translating business requirements into security controls	238
-	Aligning architecture with compliance and legal requirements	208
-## 4. Building and Communicating Reference Architectures
-	Developing a reference architecture for enterprise security	367
-	Modeling security capabilities and services	199
-	Creating architecture artifacts	232
-	Architecture review and approval process	223
-	FAKE VIDEO - Role Play: Lead an architecture teview and approval process	0
-	Communicating architecture to executives and technical teams	233
-	Presenting to executives	213
-## 5. Implementing Security Architecture and Design
-	Aligning security with business goals and risk objectives	182
-	Defining security requirements and compliance needs	194
-	Designing multi-layered security architecture	297
-	Implementing controls and validating the design	204
-	Operationalizing and governing security architecture	0
-## Conclusion
-	Next steps	40
-</t>
+          <t xml:space="preserve"># Security Architecture Foundations for Security Architects: From Frameworks to Business Integration ## Introduction 	The strategic value of security architecture	44 	What you should know	74 ## 1. Core Concepts and Security Frameworks 	Introduction to security architecture	210 	Overview of key security architecture frameworks	252 	Understanding NIST Cybersecurity Framework	272 	Mapping architecture layers (business, data, application, technology)	230 	Control Frameworks and Reference Models (ISO 27001, COBIT, MITRE ATT&amp;CK)	232 	Framework fit	195 ## 2. Security Design Principles and Governance 	Applying security by design principles	226 	Designing for resilience and availability	179 	Secure architecture governance and decision-making	234 	Business continuity and security architecture alignment	274 	Security patterns and architecture reuse	279 ## 3. Business Integration and Alignment 	Understanding business strategy and its impact on security	230 	Risk management and business Impact analysis	234 	FAKE VIDEO - Role Play: Conduct Business Impact Analysis to Inform Security Architecture Design	0 	Stakeholder engagement and communication	228 	Translating business requirements into security controls	238 	Aligning architecture with compliance and legal requirements	208 ## 4. Building and Communicating Reference Architectures 	Developing a reference architecture for enterprise security	367 	Modeling security capabilities and services	199 	Creating architecture artifacts	232 	Architecture review and approval process	223 	FAKE VIDEO - Role Play: Lead an architecture teview and approval process	0 	Communicating architecture to executives and technical teams	233 	Presenting to executives	213 ## 5. Implementing Security Architecture and Design 	Aligning security with business goals and risk objectives	182 	Defining security requirements and compliance needs	194 	Designing multi-layered security architecture	297 	Implementing controls and validating the design	204 	Operationalizing and governing security architecture	0 ## Conclusion 	Next steps	40 </t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -6540,42 +6006,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Zero Trust Architecture for Security Architects: From Network Design to Identity Integration
-## Introduction
-	Redefining security: The Zero Trust playbook for architects	50
-	What you should know	75
-## 1. Foundations and Frameworks of Zero Trust
-	Introduction to zero trust	223
-	Core security principles of zero trust	193
-	Comparing legacy security vs. zero trust	185
-	Understanding NIST 800-207 framework	268
-	Exploring CISA’s Zero Trust Maturity Model (ZTMM)	257
-	FAKE VIDEO - Practice Role Play: Applying the Zero Trust model	0
-## 2. Reference Architecture and Network Design
-	Building a zero-trust reference architecture	437
-	Policy decision and enforcement points (PDP/PEP)	231
-	Software-defined perimeters (SDP) and secure access	268
-	Designing for network segmentation and micro-segmentation	279
-	Create a segmentation plan	259
-	Securing multi-cloud and hybrid environments	256
-	FAKE VIDEO - Practice Role Play: Design a zero-trust reference architecture	0
-## 3. Identity, Access, and Data Protection
-	The role of identity in zero trust	193
-	Integrating MFA, SSO, and federated identity	301
-	Identity governance and lifecycle management	210
-	Least privilege access and RBAC	250
-	Just-in-time (JIT) access and policy enforcement	284
-	Zero Trust network access (ZTNA) and SASE integration	240
-	FAKE VIDEO - Practice Role Play: Recommend ZTNA and SASE for secure access	0
-## 4. Operationalizing and Scaling Zero Trust
-	Embedding zero trust in DevSecOps	235
-	Zero Trust monitoring, detection, and response	277
-	Zero Trust compliance and mapping to frameworks	241
-	Zero Trust program governance and adoption	218
-	Implementing Zero Trust: A five-step process	407
-## Conclusion
-	Next steps	67
-</t>
+          <t xml:space="preserve"># Zero Trust Architecture for Security Architects: From Network Design to Identity Integration ## Introduction 	Redefining security: The Zero Trust playbook for architects	50 	What you should know	75 ## 1. Foundations and Frameworks of Zero Trust 	Introduction to zero trust	223 	Core security principles of zero trust	193 	Comparing legacy security vs. zero trust	185 	Understanding NIST 800-207 framework	268 	Exploring CISA’s Zero Trust Maturity Model (ZTMM)	257 	FAKE VIDEO - Practice Role Play: Applying the Zero Trust model	0 ## 2. Reference Architecture and Network Design 	Building a zero-trust reference architecture	437 	Policy decision and enforcement points (PDP/PEP)	231 	Software-defined perimeters (SDP) and secure access	268 	Designing for network segmentation and micro-segmentation	279 	Create a segmentation plan	259 	Securing multi-cloud and hybrid environments	256 	FAKE VIDEO - Practice Role Play: Design a zero-trust reference architecture	0 ## 3. Identity, Access, and Data Protection 	The role of identity in zero trust	193 	Integrating MFA, SSO, and federated identity	301 	Identity governance and lifecycle management	210 	Least privilege access and RBAC	250 	Just-in-time (JIT) access and policy enforcement	284 	Zero Trust network access (ZTNA) and SASE integration	240 	FAKE VIDEO - Practice Role Play: Recommend ZTNA and SASE for secure access	0 ## 4. Operationalizing and Scaling Zero Trust 	Embedding zero trust in DevSecOps	235 	Zero Trust monitoring, detection, and response	277 	Zero Trust compliance and mapping to frameworks	241 	Zero Trust program governance and adoption	218 	Implementing Zero Trust: A five-step process	407 ## Conclusion 	Next steps	67 </t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -6647,44 +6078,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Microservices and API Security for Security Architects: From Gateway Protection to Container Security
-## Introduction
-	Securing distributed applications	0
-## 1. Microservices Architecture Security
-	Overview of microservices-based application architecture	0
-	Microservices architecture patterns	0
-	Authentication and access management for microservices	0
-	Secure communication protocols for microservices	0
-	Security monitoring for microservices	0
-	High availability and resiliency for microservices	0
-## 2. Service Mesh Security
-	Overview of service mesh infrastructure	0
-	Service mesh security controls	0
-	Authentication and authorization for service mesh	0
-	Service discovery	0
-	Secure service access policy	0
-	Mutual authentication with TLS	0
-	Configure service mesh for network resilience	0
-## 3. API Gateway Security
-	Overview of API management gateways	0
-	Integrate the API gateway with identity management	0
-	Centralize policy enforcement with the API gateway	0
-	Rate limiting	0
-	Circuit breaker	0
-## 4. Container Security
-	Overview of container security	0
-	Container supply chain security	0
-	Container runtime security	0
-	Demo: Deploy Istio-based service mesh for Kubernetes	0
-	Egress control	0
-## 5. Demos and Labs
-	Demo: Deploy Distributed Application Runtime (Dapr)	0
-	Demo: Use of Dapr Secrets API to access secret stores	0
-	Demo: Enforce Kubernetes cluster governance with Kyverno	0
-	Demo: Harden a Kubernetes cluster	0
-## Conclusion
-	Next steps	0
-</t>
+          <t xml:space="preserve"># Microservices and API Security for Security Architects: From Gateway Protection to Container Security ## Introduction 	Securing distributed applications	0 ## 1. Microservices Architecture Security 	Overview of microservices-based application architecture	0 	Microservices architecture patterns	0 	Authentication and access management for microservices	0 	Secure communication protocols for microservices	0 	Security monitoring for microservices	0 	High availability and resiliency for microservices	0 ## 2. Service Mesh Security 	Overview of service mesh infrastructure	0 	Service mesh security controls	0 	Authentication and authorization for service mesh	0 	Service discovery	0 	Secure service access policy	0 	Mutual authentication with TLS	0 	Configure service mesh for network resilience	0 ## 3. API Gateway Security 	Overview of API management gateways	0 	Integrate the API gateway with identity management	0 	Centralize policy enforcement with the API gateway	0 	Rate limiting	0 	Circuit breaker	0 ## 4. Container Security 	Overview of container security	0 	Container supply chain security	0 	Container runtime security	0 	Demo: Deploy Istio-based service mesh for Kubernetes	0 	Egress control	0 ## 5. Demos and Labs 	Demo: Deploy Distributed Application Runtime (Dapr)	0 	Demo: Use of Dapr Secrets API to access secret stores	0 	Demo: Enforce Kubernetes cluster governance with Kyverno	0 	Demo: Harden a Kubernetes cluster	0 ## Conclusion 	Next steps	0 </t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -6718,35 +6112,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cloud Security Architecture for the Enterprise
-## Introduction
-	Importance of cloud security architecture	50
-	What you should know	45
-## 1. Introduction to Cloud Security Architecture
-	Cloud security architecture components	295
-	Shared responsibility model	198
-	Cloud security frameworks	171
-## 2. Identity and Access Management
-	Cloud identity providers	185
-	Control plane authorization	154
-	Data plane authorization	119
-	Cloud permission creep	203
-	Cloud Infrastructure Entitlement Management (CIEM)	135
-	Zero Trust identity architecture	279
-## 3. Logging and Monitoring
-	Cloud security posture monitoring	340
-	Cloud-native application protection (CNAPP)	221
-	Cloud compliance monitoring	152
-	Cloud-native incident management	226
-	Logging and monitoring architecture	201
-	Cloud drift detection	195
-## 4. Cloud Network Security
-	IaaS network controls	210
-	PaaS network controls	34
-	Zero Trust cloud network security architecture	217
-## Conclusion
-	Learning more about cloud security architecture	127
-</t>
+          <t xml:space="preserve"># Cloud Security Architecture for the Enterprise ## Introduction 	Importance of cloud security architecture	50 	What you should know	45 ## 1. Introduction to Cloud Security Architecture 	Cloud security architecture components	295 	Shared responsibility model	198 	Cloud security frameworks	171 ## 2. Identity and Access Management 	Cloud identity providers	185 	Control plane authorization	154 	Data plane authorization	119 	Cloud permission creep	203 	Cloud Infrastructure Entitlement Management (CIEM)	135 	Zero Trust identity architecture	279 ## 3. Logging and Monitoring 	Cloud security posture monitoring	340 	Cloud-native application protection (CNAPP)	221 	Cloud compliance monitoring	152 	Cloud-native incident management	226 	Logging and monitoring architecture	201 	Cloud drift detection	195 ## 4. Cloud Network Security 	IaaS network controls	210 	PaaS network controls	34 	Zero Trust cloud network security architecture	217 ## Conclusion 	Learning more about cloud security architecture	127 </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -7618,8 +6984,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Security Infrastructure Fundamentals for IT Security Admins: From Architecture Basics to Monitoring Setup
-</t>
+          <t xml:space="preserve"># Security Infrastructure Fundamentals for IT Security Admins: From Architecture Basics to Monitoring Setup </t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -7653,8 +7018,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Perimeter and Endpoint Protection for IT Security Admins: From Firewall Management to Web Security
-</t>
+          <t xml:space="preserve"># Perimeter and Endpoint Protection for IT Security Admins: From Firewall Management to Web Security </t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -7688,8 +7052,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Identity and Access Management for IT Security Admins: From Directory Services to Privileged Access
-</t>
+          <t xml:space="preserve"># Identity and Access Management for IT Security Admins: From Directory Services to Privileged Access </t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -7761,8 +7124,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Incident Response for IT Security Admins: From Detection to Remediation Techniques
-</t>
+          <t xml:space="preserve"># Incident Response for IT Security Admins: From Detection to Remediation Techniques </t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -7830,8 +7192,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"># IAM Fundamentals for Identity &amp; Access Managers: From Core Concepts to Lifecycle Management
-</t>
+          <t xml:space="preserve"># IAM Fundamentals for Identity &amp; Access Managers: From Core Concepts to Lifecycle Management </t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -7865,8 +7226,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Directory Services Management for Identity and Access Managers: From User Provisioning to System Synchronization [Licensed]
-</t>
+          <t xml:space="preserve"># Directory Services Management for Identity and Access Managers: From User Provisioning to System Synchronization [Licensed] </t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -7900,8 +7260,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Authentication Systems for Identity and Access Managers: From Multi-Factor Methods to Federation Services [Licensed]
-</t>
+          <t xml:space="preserve"># Authentication Systems for Identity and Access Managers: From Multi-Factor Methods to Federation Services [Licensed] </t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -7935,8 +7294,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Access Control Implementation for Identity and Access Managers: From Role Design to Privileged Management [Licensed]
-</t>
+          <t xml:space="preserve"># Access Control Implementation for Identity and Access Managers: From Role Design to Privileged Management [Licensed] </t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -7970,8 +7328,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"># IAM Governance for Identity and Access Managers: From Compliance Monitoring to Program Metrics [Licensed]
-</t>
+          <t xml:space="preserve"># IAM Governance for Identity and Access Managers: From Compliance Monitoring to Program Metrics [Licensed] </t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -8043,29 +7400,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Security Operations (SecOps) Essentials: Detecting and Responding to Security Threats
-## Introduction
-	Welcome to SecOps essentials	44
-## 1. Intro to SecOps
-	SecOps overview	139
-	The importance of SecOps	146
-	Day in the life of a SecOps engineer	205
-## 2. Career in SecOps
-	Key skills for SecOps engineers	196
-	Getting a job in SecOps	154
-	SecOps tools	268
-	Imposter syndrome	173
-## 3. SecOps Leadership
-	Leading a successful SecOps team	179
-	SecOps goals and KPIs	152
-	Preventing burnout in cybersecurity	193
-## 4. Cross-Functional SecOps
-	CTI for SecOps	238
-	Threat hunting for SecOps	260
-	Incident response for SecOps	285
-## Conclusion
-	Next steps	25
-</t>
+          <t xml:space="preserve"># Security Operations (SecOps) Essentials: Detecting and Responding to Security Threats ## Introduction 	Welcome to SecOps essentials	44 ## 1. Intro to SecOps 	SecOps overview	139 	The importance of SecOps	146 	Day in the life of a SecOps engineer	205 ## 2. Career in SecOps 	Key skills for SecOps engineers	196 	Getting a job in SecOps	154 	SecOps tools	268 	Imposter syndrome	173 ## 3. SecOps Leadership 	Leading a successful SecOps team	179 	SecOps goals and KPIs	152 	Preventing burnout in cybersecurity	193 ## 4. Cross-Functional SecOps 	CTI for SecOps	238 	Threat hunting for SecOps	260 	Incident response for SecOps	285 ## Conclusion 	Next steps	25 </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -8896,8 +8231,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Threat Detection and Analysis for Cybersecurity Analysts: From Log Analysis to Alert Triage
-</t>
+          <t xml:space="preserve"># Threat Detection and Analysis for Cybersecurity Analysts: From Log Analysis to Alert Triage </t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -8931,8 +8265,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Cybersecurity Foundations: Incident Response
-</t>
+          <t xml:space="preserve"># Cybersecurity Foundations: Incident Response </t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -9004,8 +8337,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Threat Intelligence for Cybersecurity Analysts: From Vulnerability Management to Threat Hunting
-</t>
+          <t xml:space="preserve"># Threat Intelligence for Cybersecurity Analysts: From Vulnerability Management to Threat Hunting </t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -9077,8 +8409,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Defense Infrastructure Fundamentals for Cybersecurity Engineers: From Architecture Basics to Security Assessment
-</t>
+          <t xml:space="preserve"># Defense Infrastructure Fundamentals for Cybersecurity Engineers: From Architecture Basics to Security Assessment </t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -9112,8 +8443,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Security Control Implementation for Cybersecurity Engineers: From Access Controls to Defense-in-Depth
-</t>
+          <t xml:space="preserve"># Security Control Implementation for Cybersecurity Engineers: From Access Controls to Defense-in-Depth </t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -9147,8 +8477,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Vulnerability Management for Cybersecurity Engineers: From Assessment Tools to Continuous Testing
-</t>
+          <t xml:space="preserve"># Vulnerability Management for Cybersecurity Engineers: From Assessment Tools to Continuous Testing </t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -9182,8 +8511,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Incident Response for Cybersecurity Engineers: From Detection Engineering to Recovery Design
-</t>
+          <t xml:space="preserve"># Incident Response for Cybersecurity Engineers: From Detection Engineering to Recovery Design </t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -9217,8 +8545,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"># Defense Technologies for Cybersecurity Engineers: From Threat Hunting to Automated Response
-</t>
+          <t xml:space="preserve"># Defense Technologies for Cybersecurity Engineers: From Threat Hunting to Automated Response </t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
